--- a/数据整理/stocks/A股/上证主板/603678-火炬电子.xlsx
+++ b/数据整理/stocks/A股/上证主板/603678-火炬电子.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -6680,7 +6681,6 @@
           <t>东吴移动互联灵活配置混合C</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr"/>
       <c r="E68" t="inlineStr">
         <is>
           <t>93.58</t>
@@ -6712,7 +6712,6 @@
           <t>交银稳健配置混合H</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr"/>
       <c r="E69" t="inlineStr">
         <is>
           <t>84.34</t>
@@ -6744,7 +6743,6 @@
           <t>西部利得景程灵活配置混合C</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr"/>
       <c r="E70" t="inlineStr">
         <is>
           <t>80.81</t>
@@ -6760,6 +6758,2606 @@
       </c>
       <c r="H70" t="n">
         <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H68"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005609</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国军工主题混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>137.02</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>7.2758</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011056</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>博时汇兴回报一年持有期灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>147.21</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>52.63</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.6214</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>519704</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>交银先进制造混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>66.00</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>76.80</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.2242</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>519690</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>交银稳健配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>19.69</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>86.13</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.88</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.5516</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>007130</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中庚小盘价值股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>31.74</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.71</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.4251</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>000601</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华宝创新优选混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>21.99</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.16</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.30</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.3854</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>000596</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>前海开源中证军工指数A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>24.99</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.52</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.1820</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009402</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>交银施罗德启明混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>27.16</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>82.43</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.0891</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>168501</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>北信瑞丰产业升级多策略混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>11.61</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.67</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>9.30</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.0797</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>519005</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>海富通股票混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>31.39</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.9762</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011113</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>富国军工主题混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>17.33</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.9202</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009693</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>富国积极成长一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>16.42</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.60</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.8637</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011177</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>博时汇融回报一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>40.64</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>59.73</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.8372</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010148</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>浙商智选经济动能混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>13.42</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>90.26</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.6576</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>160643</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>鹏华中证空天一体军工指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>18.77</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.6382</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>002983</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>长信国防军工量化灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>11.33</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.77</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.5642</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010149</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>浙商智选经济动能混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>11.35</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>90.26</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.5562</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>000124</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华宝服务优选混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>9.23</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>89.20</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.5556</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>002345</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华夏高端制造灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>16.51</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.5267</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>002199</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>前海开源中证军工指数C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>10.80</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.52</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.5108</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>519700</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>交银主题优选混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>16.36</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>70.57</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.4630</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>010114</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华宝新兴成长混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>6.53</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>90.80</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.4029</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>001118</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华宝事件驱动混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>9.62</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>81.31</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.2905</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>010364</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>鹏华中证空天一体军工指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>7.80</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.2652</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>008960</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>长信国防军工量化灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>92.77</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.2276</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>000690</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>前海开源大海洋战略经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>92.97</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.2128</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>519767</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>交银施罗德科技创新灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>89.88</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>8.39</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.2089</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>519983</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>长信量化先锋混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>11.47</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>92.27</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1893</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>011927</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>博时汇誉回报灵活配置混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>67.08</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1769</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>007202</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>天弘优质成长企业精选混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>90.95</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1768</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>009023</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>鹏华稳健回报混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>95.91</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1559</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>008085</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>海富通先进制造股票A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1550</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>001056</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>北信瑞丰健康生活主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>87.54</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>8.02</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1420</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>000535</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>长盛航天海工装备灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>87.30</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1215</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>003495</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>鹏华弘尚灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>7.18</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>20.28</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1149</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>009025</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>海富通科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>93.39</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1103</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>000612</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>华宝生态中国混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>91.07</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1059</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>001534</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>华宝万物互联灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>85.43</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0767</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>970015</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>申万宏源红利成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>74.08</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0732</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>002601</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>中银证券价值精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>7.94</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0707</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>000867</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>华宝品质生活股票</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>86.71</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0614</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>008084</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>海富通先进制造股票C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0523</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>008757</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>九泰聚鑫混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>37.62</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0472</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>001312</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>华安新优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>22.09</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0431</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>008758</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>九泰聚鑫混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>37.62</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0392</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>005075</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>富国研究量化精选混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0382</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>009188</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>鹏华股息精选混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>97.15</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0381</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>011928</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>博时汇誉回报灵活配置混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>67.08</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0381</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>007903</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>长城量化小盘股票</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>83.06</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0309</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>580009</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>东吴多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>91.13</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>9.38</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0272</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>009024</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>海富通科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>93.39</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0259</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>002144</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>华安新优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>22.09</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0245</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>003496</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>鹏华弘尚灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>20.28</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0218</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>005477</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>长安鑫禧灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>93.92</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0143</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>006165</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>建信中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>92.02</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0125</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>005381</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>泰康睿利量化多策略混合A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>93.25</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0113</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>002567</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>大成国家安全主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>82.47</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0106</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>011178</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>博时汇融回报一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>59.73</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>006166</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>建信中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>92.02</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>005478</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>长安鑫禧灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>93.92</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>004913</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>中银证券聚瑞混合A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>32.83</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>005382</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>泰康睿利量化多策略混合C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>93.25</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>004227</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>泰信鑫利混合A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>27.24</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>004228</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>泰信鑫利混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>27.24</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>004914</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>中银证券聚瑞混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>32.83</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>004221</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>长信量化先锋混合C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>92.27</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>960017</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>交银稳健配置混合H</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>86.13</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>7.88</t>
+        </is>
+      </c>
+      <c r="G68" t="n">
+        <v>0</v>
+      </c>
+      <c r="H68" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/603678-火炬电子.xlsx
+++ b/数据整理/stocks/A股/上证主板/603678-火炬电子.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -9363,4 +9364,2108 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H55"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>166019</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧价值智选回报混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>161.80</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.01</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>11.3422</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011056</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>博时汇兴回报一年持有期灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>142.06</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>70.24</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>4.0913</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>519704</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>交银先进制造混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>82.61</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>85.23</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.8170</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>004235</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中欧价值智选回报混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>33.95</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.01</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.3799</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>004698</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>博时军工主题股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>54.53</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.25</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.2357</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010936</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>交银施罗德均衡成长一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>80.15</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>72.43</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.7873</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>110029</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>易方达科讯混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>42.31</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>85.08</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.7686</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001887</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中欧价值智选回报混合E</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>24.29</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.01</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.7027</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>519690</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>交银稳健配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>20.17</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>70.49</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.17</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.4462</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>000601</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华宝创新优选混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>19.87</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.17</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.85</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.3611</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009402</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>交银施罗德启明混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>37.58</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>80.07</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.1763</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011177</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>博时汇融回报一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>38.69</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>66.80</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.9595</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>000596</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>前海开源中证军工指数A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>18.33</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.03</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.9403</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009693</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>富国积极成长一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>20.77</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>97.94</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.6937</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>160643</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>鹏华中证空天一体军工指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>21.70</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.79</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.6922</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>006533</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>易方达科融混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>11.97</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>85.83</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.5997</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>000124</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华宝服务优选混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>8.43</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91.82</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6.77</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.5707</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>168501</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>北信瑞丰产业升级多策略混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>91.98</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>8.76</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.4941</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>005977</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中信保诚至兴灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>9.00</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.4491</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010364</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>鹏华中证空天一体军工指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>11.84</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.79</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.3777</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>002199</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>前海开源中证军工指数C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>7.10</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.03</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.3642</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>001118</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华宝事件驱动混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>7.73</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>78.60</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.3177</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>010383</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>宝盈基础产业混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.3171</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>010114</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华宝新兴成长混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>92.16</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>6.68</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.3100</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>000690</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>前海开源大海洋战略经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>7.71</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.2930</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>580009</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>东吴多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.2440</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>519767</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>交银施罗德科技创新灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>7.57</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.2188</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>001056</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>北信瑞丰健康生活主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>89.59</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>8.35</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1695</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>004848</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>中欧睿泓定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>60.20</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1151</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>005978</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>中信保诚至兴灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1003</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>011927</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>博时汇誉回报灵活配置混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>48.62</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0965</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>001534</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>华宝万物互联灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>84.23</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0745</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>011229</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>创金合信数字经济主题股票A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>81.98</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0694</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>003495</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>鹏华弘尚灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>8.29</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>24.93</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0671</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>010937</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>交银施罗德均衡成长一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>72.43</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0627</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>000867</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>华宝品质生活股票</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>81.74</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0486</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>011230</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>创金合信数字经济主题股票C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>81.98</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0333</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>006165</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>建信中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>93.16</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0294</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>002152</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>华宝核心优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>77.27</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0226</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>003496</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>鹏华弘尚灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>24.93</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0222</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>010384</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>宝盈基础产业混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0205</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>002789</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>长盛同享灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>83.30</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0167</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>001866</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>北信瑞丰新成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>93.16</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>7.56</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0113</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>011928</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>博时汇誉回报灵活配置混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>48.62</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0101</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>006166</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>建信中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>93.16</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>011178</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>博时汇融回报一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>66.80</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>008437</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>九泰行业优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>50.36</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>000892</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>九泰天宝灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>79.49</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>512350</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>兴业中证福建50ETF</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>96.36</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>008438</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>九泰行业优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>50.36</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>002790</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>长盛同享灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>83.30</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>013442</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>建信中证1000指数增强E</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>93.16</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>002028</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>九泰天宝灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>79.49</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G54" t="n">
+        <v>0</v>
+      </c>
+      <c r="H54" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>960017</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>交银稳健配置混合H</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>70.49</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>7.17</t>
+        </is>
+      </c>
+      <c r="G55" t="n">
+        <v>0</v>
+      </c>
+      <c r="H55" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603678-火炬电子.xlsx
+++ b/数据整理/stocks/A股/上证主板/603678-火炬电子.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -11468,4 +11469,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>54</v>
+      </c>
+      <c r="D2" t="n">
+        <v>40.95</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>67</v>
+      </c>
+      <c r="D3" t="n">
+        <v>32.74</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>69</v>
+      </c>
+      <c r="D4" t="n">
+        <v>31.21</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>95</v>
+      </c>
+      <c r="D5" t="n">
+        <v>39.32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603678-火炬电子.xlsx
+++ b/数据整理/stocks/A股/上证主板/603678-火炬电子.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -11477,7 +11478,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11488,17 +11489,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -11508,14 +11529,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>54</v>
-      </c>
-      <c r="D2" t="n">
-        <v>40.95</v>
+          <t>166019</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧价值智选回报混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>228.62</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>12.5741</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -11524,14 +11567,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>67</v>
-      </c>
-      <c r="D3" t="n">
-        <v>32.74</v>
+          <t>011056</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>博时汇兴回报一年持有期灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>145.52</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>83.27</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>5.7044</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -11540,14 +11605,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>69</v>
-      </c>
-      <c r="D4" t="n">
-        <v>31.21</v>
+          <t>519704</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>交银先进制造混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>101.86</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.76</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>4.5531</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -11556,13 +11643,2271 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>010936</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>交银施罗德均衡成长一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>96.27</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>86.42</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>4.4284</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>004235</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中欧价值智选回报混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>57.07</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>3.1388</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>013220</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中欧新兴价值一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>53.09</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.7554</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>004698</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>博时军工主题股票</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>55.81</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.27</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2.3942</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009402</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>交银施罗德启明混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>47.90</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>71.72</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2.1459</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>519690</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>交银稳健配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>20.53</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>67.80</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>9.22</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.8929</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001887</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中欧价值智选回报混合E</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>31.25</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.7188</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>110029</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>易方达科讯混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>44.12</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>85.47</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.6192</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>000601</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华宝创新优选混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>20.39</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.81</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.27</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.2785</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011177</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>博时汇融回报一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>39.26</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>76.46</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.2249</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>013221</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中欧新兴价值一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>20.39</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.0582</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>005977</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中信保诚至兴灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>22.91</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.38</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.8843</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>004139</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中邮军民融合灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>17.88</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>79.66</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.8010</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>000596</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>前海开源中证军工指数A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>16.27</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.7566</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>012568</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>天弘高端制造混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>12.87</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>91.38</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.6075</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>006533</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>易方达科融混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>20.82</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>84.05</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.5934</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>003378</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>泰康策略优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>23.64</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.93</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.5768</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>000124</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华宝服务优选混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>8.92</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>91.25</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.5298</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>481010</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>工银瑞信中小盘混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>22.81</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.5201</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>168501</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>北信瑞丰产业升级多策略混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>7.11</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>92.77</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>6.38</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.4536</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>580009</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>东吴多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>7.26</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.3913</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>001118</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华宝事件驱动混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>7.65</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>88.44</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.3779</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>005978</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>中信保诚至兴灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>9.50</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>93.38</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.3667</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>519110</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>浦银安盛价值成长混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>10.74</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>92.52</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.2878</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>002199</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>前海开源中证军工指数C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.2618</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>519170</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>浦银安盛增长动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>10.22</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>83.86</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.2494</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>010114</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>华宝新兴成长混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>92.09</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.2335</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>460002</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>华泰柏瑞积极成长混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>7.95</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>71.27</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.2266</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>011927</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>博时汇誉回报灵活配置混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>82.69</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1993</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>010937</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>交银施罗德均衡成长一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>86.42</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1587</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>001056</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>北信瑞丰健康生活主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>89.93</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1510</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>003495</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>鹏华弘尚灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>12.00</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>21.16</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1200</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>519120</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>浦银安盛新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>87.71</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0856</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>519113</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>浦银安盛精致生活混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>89.67</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0848</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>004448</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>博时汇智回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>56.89</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0807</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>001534</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>华宝万物互联灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>86.60</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0799</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>006109</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>富荣价值精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>91.32</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0642</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>012297</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>东兴宸瑞量化混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0531</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>000867</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>华宝品质生活股票</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>88.70</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0518</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>012569</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>天弘高端制造混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>91.38</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0463</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>006110</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>富荣价值精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>91.32</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0438</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>010043</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>天弘安康颐和混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>22.16</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0414</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>002194</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>北信瑞丰稳定增强偏债混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>24.64</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0341</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>003496</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>鹏华弘尚灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>21.16</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0298</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>002152</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>华宝核心优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>79.16</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0262</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>010044</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>天弘安康颐和混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>22.16</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0150</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>011928</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>博时汇誉回报灵活配置混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>82.69</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0106</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>011178</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>博时汇融回报一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>76.46</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0081</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>004352</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>北信瑞丰研究精选股票</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>92.91</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>001849</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>前海开源强势共识100强等权重股票</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>91.12</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>012298</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>东兴宸瑞量化混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>004227</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>泰信鑫利混合A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>28.02</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>004228</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>泰信鑫利混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>28.02</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>960031</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>浦银安盛价值成长混合H</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>92.52</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G58" t="n">
+        <v>0</v>
+      </c>
+      <c r="H58" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>014011</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>浦银安盛价值成长混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>92.52</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G59" t="n">
+        <v>0</v>
+      </c>
+      <c r="H59" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>960030</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>华泰柏瑞积极成长混合H</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>71.27</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G60" t="n">
+        <v>0</v>
+      </c>
+      <c r="H60" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>960017</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>交银稳健配置混合H</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>67.80</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>9.22</t>
+        </is>
+      </c>
+      <c r="G61" t="n">
+        <v>0</v>
+      </c>
+      <c r="H61" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>60</v>
+      </c>
+      <c r="D2" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>54</v>
+      </c>
+      <c r="D3" t="n">
+        <v>40.95</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>67</v>
+      </c>
+      <c r="D4" t="n">
+        <v>32.74</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>69</v>
+      </c>
+      <c r="D5" t="n">
+        <v>31.21</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>95</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>39.32</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603678-火炬电子.xlsx
+++ b/数据整理/stocks/A股/上证主板/603678-火炬电子.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -13806,7 +13807,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13817,17 +13818,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -13837,14 +13858,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>60</v>
-      </c>
-      <c r="D2" t="n">
-        <v>56</v>
+          <t>166019</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧价值智选回报混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>156.17</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.48</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>11.6815</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -13853,14 +13896,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>54</v>
-      </c>
-      <c r="D3" t="n">
-        <v>40.95</v>
+          <t>011056</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>博时汇兴回报一年持有期灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>107.57</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>67.02</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>4.7331</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -13869,14 +13934,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>67</v>
-      </c>
-      <c r="D4" t="n">
-        <v>32.74</v>
+          <t>013220</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中欧新兴价值一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>63.33</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.37</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>4.0341</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -13885,14 +13972,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>69</v>
-      </c>
-      <c r="D5" t="n">
-        <v>31.21</v>
+          <t>004235</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中欧价值智选回报混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>36.40</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.48</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.7227</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -13901,13 +14010,1307 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>001887</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中欧价值智选回报混合E</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>20.77</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.48</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.5536</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>000991</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>工银瑞信战略转型主题股票A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>48.06</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>88.32</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.1727</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011177</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>博时汇融回报一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>39.26</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>65.35</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.1189</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>004848</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中欧睿泓定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>23.30</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>59.08</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.1184</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>013221</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中欧新兴价值一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>16.75</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.37</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.0670</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>519690</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>交银稳健配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>16.44</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>88.28</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.47</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.0637</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>960017</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>交银稳健配置混合H</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>16.44</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>88.28</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.47</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.0637</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>003378</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>泰康策略优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>19.86</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>81.29</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.6216</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>000596</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>前海开源中证军工指数A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>14.48</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.38</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.6183</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>012568</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>天弘高端制造混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>91.15</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>8.13</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.4837</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>005977</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中信保诚至兴灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>7.64</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>89.13</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.4087</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010874</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>泰康品质生活混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>13.17</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>81.43</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.3951</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001479</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中邮风格轮动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>9.45</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>62.17</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.3308</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>168501</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>北信瑞丰产业升级多策略混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2595</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>002199</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>前海开源中证军工指数C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.38</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2327</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>550009</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>信诚中小盘混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>87.68</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1909</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>005014</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>泰康景泰回报混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>11.64</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>27.21</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1560</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>011473</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>工银瑞信战略转型主题股票C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>88.32</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1369</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>010875</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>泰康品质生活混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>81.43</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1317</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>005978</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>中信保诚至兴灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>89.13</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0979</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>011927</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>博时汇誉回报灵活配置混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>68.12</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0710</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>012569</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>天弘高端制造混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>91.15</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>8.13</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0667</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>009364</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>工银瑞信科技创新6个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>69.85</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0623</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>000535</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>长盛航天海工装备灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>60.06</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0529</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>164826</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>工银瑞信创业板两年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>72.79</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0519</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>009365</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>工银瑞信科技创新6个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>69.85</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0105</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>005015</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>泰康景泰回报混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>27.21</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>011928</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>博时汇誉回报灵活配置混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>68.12</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>011178</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>博时汇融回报一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>65.35</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>010889</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>工银瑞信创业板两年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>72.79</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>002194</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>北信瑞丰稳定增强偏债混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>22.00</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>35</v>
+      </c>
+      <c r="D2" t="n">
+        <v>35.73</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>60</v>
+      </c>
+      <c r="D3" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>54</v>
+      </c>
+      <c r="D4" t="n">
+        <v>40.95</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>67</v>
+      </c>
+      <c r="D5" t="n">
+        <v>32.74</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>69</v>
+      </c>
+      <c r="D6" t="n">
+        <v>31.21</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>95</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>39.32</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603678-火炬电子.xlsx
+++ b/数据整理/stocks/A股/上证主板/603678-火炬电子.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -15193,7 +15194,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15204,17 +15205,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -15224,14 +15245,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>35</v>
-      </c>
-      <c r="D2" t="n">
-        <v>35.73</v>
+          <t>166019</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧价值智选回报混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>134.98</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.78</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.80</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>10.5284</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -15240,14 +15283,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>60</v>
-      </c>
-      <c r="D3" t="n">
-        <v>56</v>
+          <t>013220</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧新兴价值一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>41.39</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.31</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.0256</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -15256,14 +15321,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>54</v>
-      </c>
-      <c r="D4" t="n">
-        <v>40.95</v>
+          <t>004235</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中欧价值智选回报混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>33.31</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.78</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.80</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.5982</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -15272,14 +15359,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>67</v>
-      </c>
-      <c r="D5" t="n">
-        <v>32.74</v>
+          <t>013221</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中欧新兴价值一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>18.63</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.31</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.3619</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -15288,14 +15397,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>69</v>
-      </c>
-      <c r="D6" t="n">
-        <v>31.21</v>
+          <t>001887</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中欧价值智选回报混合E</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>16.83</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.78</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.80</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.3127</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -15304,13 +15435,1055 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>004848</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中欧睿泓定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>19.02</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>59.92</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.42</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.2211</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>012568</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>天弘高端制造混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>6.67</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>81.20</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.11</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4742</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>519690</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>交银稳健配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>17.50</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>76.65</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4445</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>013184</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>广发恒阳一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>20.39</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>36.27</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2243</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>168501</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>北信瑞丰产业升级多策略混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7.80</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1872</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>013185</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>广发恒阳一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>9.93</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>36.27</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1092</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>008347</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中信建投价值甄选混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>75.03</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1072</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>003822</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中信建投行业轮换混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>72.45</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0696</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>014232</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>博时专精特新主题混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>82.52</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0669</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>012569</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>天弘高端制造混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>81.20</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>7.11</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0668</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>014233</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>博时专精特新主题混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>82.52</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0600</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>003495</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>鹏华弘尚灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>34.61</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0516</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>001484</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>天弘新价值灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>89.67</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0485</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>008348</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中信建投价值甄选混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>75.03</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0291</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>014825</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>汇泉兴至未来一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>37.93</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0284</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>007468</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>中信建投策略精选混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>76.36</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0208</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>003823</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>中信建投行业轮换混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>72.45</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0155</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>007469</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>中信建投策略精选混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>76.36</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>003496</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>鹏华弘尚灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>34.61</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>014826</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>汇泉兴至未来一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>37.93</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>014649</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>永赢优质精选混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>91.98</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>002194</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>北信瑞丰稳定增强偏债混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>22.42</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>014650</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>永赢优质精选混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>91.98</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>960017</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>交银稳健配置混合H</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>76.65</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>29</v>
+      </c>
+      <c r="D2" t="n">
+        <v>22.08</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>35</v>
+      </c>
+      <c r="D3" t="n">
+        <v>35.73</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>60</v>
+      </c>
+      <c r="D4" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>54</v>
+      </c>
+      <c r="D5" t="n">
+        <v>40.95</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>67</v>
+      </c>
+      <c r="D6" t="n">
+        <v>32.74</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>69</v>
+      </c>
+      <c r="D7" t="n">
+        <v>31.21</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>95</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>39.32</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603678-火炬电子.xlsx
+++ b/数据整理/stocks/A股/上证主板/603678-火炬电子.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D2" t="n">
-        <v>22.08</v>
+        <v>15.72</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D3" t="n">
-        <v>35.73</v>
+        <v>22.08</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="D4" t="n">
-        <v>56</v>
+        <v>35.73</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="D5" t="n">
-        <v>40.95</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="D6" t="n">
-        <v>32.74</v>
+        <v>40.95</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D7" t="n">
-        <v>31.21</v>
+        <v>32.74</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>69</v>
+      </c>
+      <c r="D8" t="n">
+        <v>31.21</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>95</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>39.32</v>
       </c>
     </row>
@@ -600,6 +617,746 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>166019</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧价值智选回报混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>71.01</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.87</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.5885</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>013220</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧新兴价值一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>34.31</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.03</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.7551</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>004235</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中欧价值智选回报混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>26.97</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.87</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.1225</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>013221</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中欧新兴价值一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>15.22</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.03</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.2222</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>004848</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中欧睿泓定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>17.10</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>59.07</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.0380</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>014404</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中欧多元价值三年持有混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>12.96</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.15</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.72</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.0005</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001887</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中欧价值智选回报混合E</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>12.27</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.87</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.9656</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>012568</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>天弘高端制造混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.42</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3433</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>000418</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>景顺长城成长之星</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>6.70</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>81.16</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2935</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>014405</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中欧多元价值三年持有混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.15</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7.72</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0950</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>168501</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>北信瑞丰产业升级多策略混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0847</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009598</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>景顺长城科技创新三年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.12</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0756</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>012569</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>天弘高端制造混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.42</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0557</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005041</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>人保研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>79.96</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0299</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>006973</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>太平睿盈混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>28.79</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0288</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>002123</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>北信瑞丰外延增长主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>88.55</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>9.04</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0136</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>007669</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>太平睿盈混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>28.79</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>005042</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>人保研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>79.96</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1755,7 +2512,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3141,7 +3898,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5469,7 +6226,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7573,7 +8330,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -10173,7 +10930,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -12830,7 +13587,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/603678-火炬电子.xlsx
+++ b/数据整理/stocks/A股/上证主板/603678-火炬电子.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D2" t="n">
-        <v>15.72</v>
+        <v>16.69</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D3" t="n">
-        <v>22.08</v>
+        <v>15.72</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D4" t="n">
-        <v>35.73</v>
+        <v>22.08</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="D5" t="n">
-        <v>56</v>
+        <v>35.73</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="D6" t="n">
-        <v>40.95</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="D7" t="n">
-        <v>32.74</v>
+        <v>40.95</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D8" t="n">
-        <v>31.21</v>
+        <v>32.74</v>
       </c>
     </row>
     <row r="9">
@@ -601,14 +602,3692 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>69</v>
+      </c>
+      <c r="D9" t="n">
+        <v>31.21</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>95</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>39.32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H96"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>519704</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>交银先进制造混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>65.07</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>81.10</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.25</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.3683</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>519005</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>海富通股票混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>46.01</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>10.03</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>4.6148</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005609</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国军工主题混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>65.24</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.4186</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>512660</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国泰中证军工ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>102.59</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>99.40</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.8930</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009402</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>交银施罗德启明混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>30.42</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.72</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.58</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.6100</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001538</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>上投摩根科技前沿灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>49.36</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>86.35</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.5351</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>004698</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>博时军工主题股票</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>39.31</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>88.21</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.5331</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>007130</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中庚小盘价值股票</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>20.71</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.2633</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>000601</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华宝创新优选混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>23.64</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>87.75</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.1773</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009693</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>富国积极成长一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>21.03</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>96.94</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.0999</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009347</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中融价值成长6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>19.94</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.18</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.8315</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009697</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华夏成长精选6个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>22.38</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.83</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.7229</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>008085</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>海富通先进制造股票A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>7.08</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>10.01</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.7087</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>006314</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中融策略优选混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>12.51</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.71</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.5930</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>320006</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>诺安灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>11.19</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>79.23</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.5785</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>519170</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>浦银安盛增长动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>13.63</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.72</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.5425</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>000124</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华宝服务优选混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>10.15</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>88.11</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.5126</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>009025</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>海富通科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>8.60</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.4696</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010114</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华宝新兴成长混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>13.19</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>83.89</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.4498</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>005840</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>富国产业驱动混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>10.38</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>84.73</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.4422</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>168501</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>北信瑞丰产业升级多策略混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>88.32</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>8.29</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.4336</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>009023</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>鹏华稳健回报混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>6.96</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.4204</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>200007</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>长城安心回报混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>17.51</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>84.03</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.4202</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>011113</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>富国军工主题混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>7.97</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.4176</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>001702</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>东方创新科技混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>7.05</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.96</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.4047</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>000541</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>华商创新成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>11.81</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.3980</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>002669</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>华商万众创新灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>10.64</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.3618</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>001113</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>南方大数据100指数A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>30.67</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.3343</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>004895</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>华商鑫安灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>9.16</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>92.83</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.3252</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>519767</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>交银施罗德科技创新灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>87.20</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>6.96</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.2276</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>160805</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>长盛同智优势成长混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>6.86</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>95.04</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.2161</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>006615</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>工银瑞信战略新兴产业混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>9.41</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>77.66</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1948</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>160919</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>大成产业升级股票(LOF)</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>90.69</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1845</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>008134</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>鹏华优选价值股票</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>95.39</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1821</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>002345</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>华夏高端制造灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1790</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>009698</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>华夏成长精选6个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>91.83</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1780</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>160613</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>鹏华盛世创新混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1768</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>501201</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>红土创新科技创新 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>99.46</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1750</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>009707</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>工银瑞信新兴制造混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>88.54</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1461</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>008084</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>海富通先进制造股票C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>10.01</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1451</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>001753</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>红土创新新兴产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>94.77</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.1393</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>001103</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>前海开源工业革命4.0灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>6.79</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>43.62</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.1392</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>000039</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>农银高增长混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>91.04</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.1123</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>001707</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>诺安高端制造股票</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>83.94</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>9.00</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0981</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>009954</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>北信瑞丰优选成长股票</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>90.66</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0965</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>005310</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>广发电子信息传媒产业精选股票A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>89.03</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0954</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>002601</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>中银证券价值精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>92.16</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>7.00</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0896</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>002064</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>华富产业升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>86.64</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0867</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>001718</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>工银瑞信物流产业股票</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>89.67</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0786</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>005774</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>华夏产业升级混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0722</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>009024</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>海富通科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>8.60</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0705</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>000867</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>华宝品质生活股票</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0694</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>000166</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>中海信息产业精选混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>91.82</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>6.87</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0687</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>006616</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>工银瑞信战略新兴产业混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>77.66</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0687</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>002213</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>中海顺鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>87.62</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0634</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>001428</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>工银瑞信灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>75.03</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0595</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>487016</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>工银瑞信灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>75.03</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0595</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>005117</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>金信价值精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>92.56</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0582</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>004671</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>中融核心成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>90.45</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0560</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>009708</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>工银瑞信新兴制造混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>88.54</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0537</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>001534</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>华宝万物互联灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>89.48</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0534</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>001242</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>博时中证淘金大数据100指数A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0531</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>001243</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>博时中证淘金大数据100指数I</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0531</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>008757</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>九泰聚鑫混合A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>37.68</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0522</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>008758</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>九泰聚鑫混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>37.68</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0486</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>006887</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>诺德新生活混合A</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0484</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>003145</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>中融竞争优势股票</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>93.63</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0463</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>005381</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>泰康睿利量化多策略混合A</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0408</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>519115</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>浦银安盛红利精选混合</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>92.92</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0375</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>009348</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>中融价值成长6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>92.18</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0375</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>002145</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>诺安景鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>90.52</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>6.87</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0357</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>620002</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>金元顺安成长动力混合</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>79.63</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0343</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>002703</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>长城久源灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0293</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>006315</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>中融策略优选混合C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>92.71</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0237</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>519172</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>浦银安盛睿智精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>95.91</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0228</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>512100</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>南方中证1000ETF</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>98.85</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0205</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>001261</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>中融新机遇灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0202</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>310368</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>申万菱信竞争优势混合</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0196</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>001154</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>北信瑞丰平安中国主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>84.99</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>6.47</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0188</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>580009</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>东吴多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>91.17</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0175</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>004352</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>北信瑞丰研究精选股票</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>90.69</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0168</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>160522</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>博时睿益事件驱动灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>85.91</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0151</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>002191</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>农银汇理物联网主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>88.27</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0148</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>519173</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>浦银安盛睿智精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>95.91</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>010236</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>广发电子信息传媒产业精选股票C</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>89.03</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0085</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>005569</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>中融智选红利股票A</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>002588</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>博时中证银联智惠大数据100指数A</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>005118</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>金信价值精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>92.56</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>004344</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>南方大数据100指数C</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>004913</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>中银证券聚瑞混合A</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>25.83</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>005382</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>泰康睿利量化多策略混合C</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>005570</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>中融智选红利股票C</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>004416</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>博时中证银联智惠大数据100指数C</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>006888</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>诺德新生活混合C</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G95" t="n">
+        <v>0</v>
+      </c>
+      <c r="H95" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>004914</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>中银证券聚瑞混合C</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>25.83</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G96" t="n">
+        <v>0</v>
+      </c>
+      <c r="H96" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -617,6 +4296,784 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>166019</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧价值智选回报混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>71.44</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.96</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.37</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.9795</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>013220</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧新兴价值一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>36.58</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.32</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.0435</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>004235</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中欧价值智选回报混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>29.51</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.96</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.37</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.4700</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>013221</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中欧新兴价值一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>16.10</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.32</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.3395</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>014404</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中欧多元价值三年持有混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>14.47</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.65</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.85</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.1359</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>004848</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中欧睿泓定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>12.63</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>60.37</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.72</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.8487</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001887</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中欧价值智选回报混合E</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>9.15</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.96</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>8.37</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.7659</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>012568</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>天弘高端制造混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.96</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.47</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3979</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>000418</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>景顺长城成长之星</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>9.75</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>82.78</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3403</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>014405</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中欧多元价值三年持有混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.65</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7.85</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1068</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>168501</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>北信瑞丰产业升级多策略混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.49</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0819</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>012569</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>天弘高端制造混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>90.96</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.47</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0699</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>014232</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>博时专精特新主题混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>80.89</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0336</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>014233</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>博时专精特新主题混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>80.89</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0289</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>014146</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>景顺长城港股通数字经济主题混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>89.97</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0208</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>002123</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>北信瑞丰外延增长主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0121</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>014147</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>景顺长城港股通数字经济主题混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>89.97</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0101</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>001154</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>北信瑞丰平安中国主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.42</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>002194</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>北信瑞丰稳定增强偏债混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>20.31</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1356,7 +5813,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2512,7 +6969,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3898,7 +8355,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6226,7 +10683,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8330,7 +12787,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -10930,7 +15387,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -13585,3666 +18042,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H96"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>519704</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>交银先进制造混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>65.07</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>81.10</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>8.25</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>5.3683</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>519005</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>海富通股票混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>46.01</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>94.38</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>10.03</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>4.6148</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>005609</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>富国军工主题混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>65.24</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>93.79</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>5.24</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>3.4186</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>512660</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>国泰中证军工ETF</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>102.59</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>99.40</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2.82</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>2.8930</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>009402</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>交银施罗德启明混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>30.42</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>89.72</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>8.58</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>2.6100</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>001538</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>上投摩根科技前沿灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>49.36</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>86.35</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>3.11</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>1.5351</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>004698</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>博时军工主题股票</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>39.31</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>88.21</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>3.90</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>1.5331</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>007130</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>中庚小盘价值股票</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>20.71</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>94.18</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>6.10</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>1.2633</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>000601</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>华宝创新优选混合</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>23.64</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>87.75</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>4.98</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>1.1773</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>009693</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>富国积极成长一年定期开放混合</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>21.03</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>96.94</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>5.23</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>1.0999</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>009347</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>中融价值成长6个月持有期混合A</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>19.94</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>92.18</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>4.17</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.8315</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>009697</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>华夏成长精选6个月定期开放混合A</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>22.38</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>91.83</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>3.23</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.7229</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>008085</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>海富通先进制造股票A</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>7.08</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>94.48</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>10.01</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.7087</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>006314</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>中融策略优选混合A</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>12.51</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>92.71</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>4.74</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.5930</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>320006</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>诺安灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>11.19</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>79.23</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>5.17</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.5785</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>519170</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>浦银安盛增长动力灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>13.63</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>92.72</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>3.98</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.5425</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>000124</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>华宝服务优选混合</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>10.15</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>88.11</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>5.05</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.5126</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>009025</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>海富通科技创新混合A</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>5.46</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>94.25</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>8.60</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.4696</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>010114</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>华宝新兴成长混合</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>13.19</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>83.89</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>3.41</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.4498</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>005840</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>富国产业驱动混合</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>10.38</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>84.73</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>4.26</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.4422</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>168501</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>北信瑞丰产业升级多策略混合</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>5.23</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>88.32</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>8.29</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.4336</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>009023</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>鹏华稳健回报混合</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>6.96</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>93.69</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>6.04</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.4204</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>200007</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>长城安心回报混合</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>17.51</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>84.03</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>2.40</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.4202</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>011113</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>富国军工主题混合C</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>7.97</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>93.79</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>5.24</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0.4176</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>001702</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>东方创新科技混合</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>7.05</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>94.96</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>5.74</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>0.4047</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>000541</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>华商创新成长灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>11.81</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>93.00</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>3.37</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>0.3980</t>
-        </is>
-      </c>
-      <c r="H27" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>002669</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>华商万众创新灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>10.64</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>93.51</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>3.40</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>0.3618</t>
-        </is>
-      </c>
-      <c r="H28" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>001113</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>南方大数据100指数A</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>30.67</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>93.77</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>1.09</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>0.3343</t>
-        </is>
-      </c>
-      <c r="H29" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>004895</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>华商鑫安灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>9.16</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>92.83</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>3.55</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>0.3252</t>
-        </is>
-      </c>
-      <c r="H30" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>519767</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>交银施罗德科技创新灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>3.27</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>87.20</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>6.96</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>0.2276</t>
-        </is>
-      </c>
-      <c r="H31" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>160805</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>长盛同智优势成长混合(LOF)</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>6.86</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>95.04</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>3.15</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>0.2161</t>
-        </is>
-      </c>
-      <c r="H32" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="2" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>006615</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>工银瑞信战略新兴产业混合A</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>9.41</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>77.66</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>2.07</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>0.1948</t>
-        </is>
-      </c>
-      <c r="H33" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="2" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>160919</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>大成产业升级股票(LOF)</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>3.03</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>90.69</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>6.09</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>0.1845</t>
-        </is>
-      </c>
-      <c r="H34" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="2" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>008134</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>鹏华优选价值股票</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>3.01</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>95.39</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>6.05</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>0.1821</t>
-        </is>
-      </c>
-      <c r="H35" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="2" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>002345</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>华夏高端制造灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>4.76</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>93.83</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>3.76</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>0.1790</t>
-        </is>
-      </c>
-      <c r="H36" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="2" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>009698</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>华夏成长精选6个月定期开放混合C</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>5.51</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>91.83</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>3.23</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>0.1780</t>
-        </is>
-      </c>
-      <c r="H37" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="2" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>160613</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>鹏华盛世创新混合(LOF)</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>4.18</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>94.34</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>4.23</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>0.1768</t>
-        </is>
-      </c>
-      <c r="H38" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="2" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>501201</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>红土创新科技创新 3 年封闭运作灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>3.48</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>99.46</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>5.03</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>0.1750</t>
-        </is>
-      </c>
-      <c r="H39" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="2" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>009707</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>工银瑞信新兴制造混合A</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>3.29</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>88.54</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>4.44</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>0.1461</t>
-        </is>
-      </c>
-      <c r="H40" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="2" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>008084</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>海富通先进制造股票C</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>1.45</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>94.48</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>10.01</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>0.1451</t>
-        </is>
-      </c>
-      <c r="H41" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="2" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>001753</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>红土创新新兴产业灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>2.77</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>94.77</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>5.03</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>0.1393</t>
-        </is>
-      </c>
-      <c r="H42" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="2" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>001103</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>前海开源工业革命4.0灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>6.79</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>43.62</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>2.05</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>0.1392</t>
-        </is>
-      </c>
-      <c r="H43" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="2" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>000039</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>农银高增长混合</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>3.12</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>91.04</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>3.60</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>0.1123</t>
-        </is>
-      </c>
-      <c r="H44" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="2" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>001707</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>诺安高端制造股票</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>1.09</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>83.94</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>9.00</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>0.0981</t>
-        </is>
-      </c>
-      <c r="H45" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="2" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>009954</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>北信瑞丰优选成长股票</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>1.67</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>90.66</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>5.78</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>0.0965</t>
-        </is>
-      </c>
-      <c r="H46" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="2" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>005310</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>广发电子信息传媒产业精选股票A</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>3.16</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>89.03</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>3.02</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>0.0954</t>
-        </is>
-      </c>
-      <c r="H47" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="2" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>002601</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>中银证券价值精选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>1.28</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>92.16</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>7.00</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>0.0896</t>
-        </is>
-      </c>
-      <c r="H48" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="2" t="n">
-        <v>47</v>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>002064</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>华富产业升级灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>3.02</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>86.64</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>2.87</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>0.0867</t>
-        </is>
-      </c>
-      <c r="H49" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="2" t="n">
-        <v>48</v>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>001718</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>工银瑞信物流产业股票</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>1.74</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>89.67</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>4.52</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>0.0786</t>
-        </is>
-      </c>
-      <c r="H50" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="2" t="n">
-        <v>49</v>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>005774</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>华夏产业升级混合</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>1.33</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>94.21</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>5.43</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>0.0722</t>
-        </is>
-      </c>
-      <c r="H51" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="2" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>009024</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>海富通科技创新混合C</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>0.82</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>94.25</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>8.60</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>0.0705</t>
-        </is>
-      </c>
-      <c r="H52" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="2" t="n">
-        <v>51</v>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>000867</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>华宝品质生活股票</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>1.78</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>93.34</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>3.90</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>0.0694</t>
-        </is>
-      </c>
-      <c r="H53" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="2" t="n">
-        <v>52</v>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>000166</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>中海信息产业精选混合</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>91.82</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>6.87</t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>0.0687</t>
-        </is>
-      </c>
-      <c r="H54" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="2" t="n">
-        <v>53</v>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>006616</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>工银瑞信战略新兴产业混合C</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>3.32</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>77.66</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>2.07</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>0.0687</t>
-        </is>
-      </c>
-      <c r="H55" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="2" t="n">
-        <v>54</v>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>002213</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>中海顺鑫灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>1.58</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>87.62</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>4.01</t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>0.0634</t>
-        </is>
-      </c>
-      <c r="H56" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="2" t="n">
-        <v>55</v>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>001428</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>工银瑞信灵活配置混合B</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>3.34</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>75.03</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>1.78</t>
-        </is>
-      </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>0.0595</t>
-        </is>
-      </c>
-      <c r="H57" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="2" t="n">
-        <v>56</v>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>487016</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>工银瑞信灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>3.34</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>75.03</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>1.78</t>
-        </is>
-      </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>0.0595</t>
-        </is>
-      </c>
-      <c r="H58" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="2" t="n">
-        <v>57</v>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>005117</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>金信价值精选灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>1.30</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>92.56</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>4.48</t>
-        </is>
-      </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>0.0582</t>
-        </is>
-      </c>
-      <c r="H59" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="2" t="n">
-        <v>58</v>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>004671</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>中融核心成长灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>1.29</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>90.45</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>4.34</t>
-        </is>
-      </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>0.0560</t>
-        </is>
-      </c>
-      <c r="H60" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="2" t="n">
-        <v>59</v>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>009708</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>工银瑞信新兴制造混合C</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>1.21</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>88.54</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>4.44</t>
-        </is>
-      </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>0.0537</t>
-        </is>
-      </c>
-      <c r="H61" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="2" t="n">
-        <v>60</v>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>001534</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>华宝万物互联灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>1.78</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>89.48</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>3.00</t>
-        </is>
-      </c>
-      <c r="G62" t="inlineStr">
-        <is>
-          <t>0.0534</t>
-        </is>
-      </c>
-      <c r="H62" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="2" t="n">
-        <v>61</v>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>001242</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>博时中证淘金大数据100指数A</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>4.70</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>94.08</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>1.13</t>
-        </is>
-      </c>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t>0.0531</t>
-        </is>
-      </c>
-      <c r="H63" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="2" t="n">
-        <v>62</v>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>001243</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>博时中证淘金大数据100指数I</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>4.70</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>94.08</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>1.13</t>
-        </is>
-      </c>
-      <c r="G64" t="inlineStr">
-        <is>
-          <t>0.0531</t>
-        </is>
-      </c>
-      <c r="H64" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="2" t="n">
-        <v>63</v>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>008757</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>九泰聚鑫混合A</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>3.24</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>37.68</t>
-        </is>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>1.61</t>
-        </is>
-      </c>
-      <c r="G65" t="inlineStr">
-        <is>
-          <t>0.0522</t>
-        </is>
-      </c>
-      <c r="H65" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="2" t="n">
-        <v>64</v>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>008758</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>九泰聚鑫混合C</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>3.02</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>37.68</t>
-        </is>
-      </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>1.61</t>
-        </is>
-      </c>
-      <c r="G66" t="inlineStr">
-        <is>
-          <t>0.0486</t>
-        </is>
-      </c>
-      <c r="H66" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="2" t="n">
-        <v>65</v>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>006887</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>诺德新生活混合A</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>1.20</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>93.99</t>
-        </is>
-      </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>4.03</t>
-        </is>
-      </c>
-      <c r="G67" t="inlineStr">
-        <is>
-          <t>0.0484</t>
-        </is>
-      </c>
-      <c r="H67" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="2" t="n">
-        <v>66</v>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>003145</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>中融竞争优势股票</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>0.94</t>
-        </is>
-      </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>93.63</t>
-        </is>
-      </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>4.93</t>
-        </is>
-      </c>
-      <c r="G68" t="inlineStr">
-        <is>
-          <t>0.0463</t>
-        </is>
-      </c>
-      <c r="H68" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="2" t="n">
-        <v>67</v>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>005381</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>泰康睿利量化多策略混合A</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>1.87</t>
-        </is>
-      </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>94.25</t>
-        </is>
-      </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>2.18</t>
-        </is>
-      </c>
-      <c r="G69" t="inlineStr">
-        <is>
-          <t>0.0408</t>
-        </is>
-      </c>
-      <c r="H69" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="2" t="n">
-        <v>68</v>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>519115</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>浦银安盛红利精选混合</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>0.84</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>92.92</t>
-        </is>
-      </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>4.46</t>
-        </is>
-      </c>
-      <c r="G70" t="inlineStr">
-        <is>
-          <t>0.0375</t>
-        </is>
-      </c>
-      <c r="H70" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="2" t="n">
-        <v>69</v>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>009348</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>中融价值成长6个月持有期混合C</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>0.90</t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>92.18</t>
-        </is>
-      </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>4.17</t>
-        </is>
-      </c>
-      <c r="G71" t="inlineStr">
-        <is>
-          <t>0.0375</t>
-        </is>
-      </c>
-      <c r="H71" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="2" t="n">
-        <v>70</v>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>002145</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>诺安景鑫灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>0.52</t>
-        </is>
-      </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>90.52</t>
-        </is>
-      </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>6.87</t>
-        </is>
-      </c>
-      <c r="G72" t="inlineStr">
-        <is>
-          <t>0.0357</t>
-        </is>
-      </c>
-      <c r="H72" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="2" t="n">
-        <v>71</v>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>620002</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>金元顺安成长动力混合</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>0.96</t>
-        </is>
-      </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>79.63</t>
-        </is>
-      </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>3.57</t>
-        </is>
-      </c>
-      <c r="G73" t="inlineStr">
-        <is>
-          <t>0.0343</t>
-        </is>
-      </c>
-      <c r="H73" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="2" t="n">
-        <v>72</v>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>002703</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>长城久源灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>0.49</t>
-        </is>
-      </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>94.57</t>
-        </is>
-      </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>5.97</t>
-        </is>
-      </c>
-      <c r="G74" t="inlineStr">
-        <is>
-          <t>0.0293</t>
-        </is>
-      </c>
-      <c r="H74" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="2" t="n">
-        <v>73</v>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>006315</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>中融策略优选混合C</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>0.50</t>
-        </is>
-      </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>92.71</t>
-        </is>
-      </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>4.74</t>
-        </is>
-      </c>
-      <c r="G75" t="inlineStr">
-        <is>
-          <t>0.0237</t>
-        </is>
-      </c>
-      <c r="H75" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="2" t="n">
-        <v>74</v>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>519172</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>浦银安盛睿智精选灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>0.53</t>
-        </is>
-      </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>95.91</t>
-        </is>
-      </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>4.30</t>
-        </is>
-      </c>
-      <c r="G76" t="inlineStr">
-        <is>
-          <t>0.0228</t>
-        </is>
-      </c>
-      <c r="H76" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="2" t="n">
-        <v>75</v>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>512100</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>南方中证1000ETF</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>5.40</t>
-        </is>
-      </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>98.85</t>
-        </is>
-      </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>0.38</t>
-        </is>
-      </c>
-      <c r="G77" t="inlineStr">
-        <is>
-          <t>0.0205</t>
-        </is>
-      </c>
-      <c r="H77" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="2" t="n">
-        <v>76</v>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>001261</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>中融新机遇灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>0.48</t>
-        </is>
-      </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>94.71</t>
-        </is>
-      </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>4.21</t>
-        </is>
-      </c>
-      <c r="G78" t="inlineStr">
-        <is>
-          <t>0.0202</t>
-        </is>
-      </c>
-      <c r="H78" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="2" t="n">
-        <v>77</v>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>310368</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>申万菱信竞争优势混合</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>0.35</t>
-        </is>
-      </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>93.84</t>
-        </is>
-      </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>5.60</t>
-        </is>
-      </c>
-      <c r="G79" t="inlineStr">
-        <is>
-          <t>0.0196</t>
-        </is>
-      </c>
-      <c r="H79" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="2" t="n">
-        <v>78</v>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>001154</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>北信瑞丰平安中国主题灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>0.29</t>
-        </is>
-      </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>84.99</t>
-        </is>
-      </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>6.47</t>
-        </is>
-      </c>
-      <c r="G80" t="inlineStr">
-        <is>
-          <t>0.0188</t>
-        </is>
-      </c>
-      <c r="H80" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="2" t="n">
-        <v>79</v>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>580009</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>东吴多策略灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>0.33</t>
-        </is>
-      </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>91.17</t>
-        </is>
-      </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>5.29</t>
-        </is>
-      </c>
-      <c r="G81" t="inlineStr">
-        <is>
-          <t>0.0175</t>
-        </is>
-      </c>
-      <c r="H81" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="2" t="n">
-        <v>80</v>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>004352</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>北信瑞丰研究精选股票</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>0.53</t>
-        </is>
-      </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>90.69</t>
-        </is>
-      </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>3.17</t>
-        </is>
-      </c>
-      <c r="G82" t="inlineStr">
-        <is>
-          <t>0.0168</t>
-        </is>
-      </c>
-      <c r="H82" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="2" t="n">
-        <v>81</v>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>160522</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>博时睿益事件驱动灵活配置混合（LOF）</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>0.53</t>
-        </is>
-      </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>85.91</t>
-        </is>
-      </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>2.85</t>
-        </is>
-      </c>
-      <c r="G83" t="inlineStr">
-        <is>
-          <t>0.0151</t>
-        </is>
-      </c>
-      <c r="H83" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="2" t="n">
-        <v>82</v>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>002191</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>农银汇理物联网主题灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>0.47</t>
-        </is>
-      </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>88.27</t>
-        </is>
-      </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>3.14</t>
-        </is>
-      </c>
-      <c r="G84" t="inlineStr">
-        <is>
-          <t>0.0148</t>
-        </is>
-      </c>
-      <c r="H84" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="2" t="n">
-        <v>83</v>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>519173</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>浦银安盛睿智精选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>0.20</t>
-        </is>
-      </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>95.91</t>
-        </is>
-      </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>4.30</t>
-        </is>
-      </c>
-      <c r="G85" t="inlineStr">
-        <is>
-          <t>0.0086</t>
-        </is>
-      </c>
-      <c r="H85" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="2" t="n">
-        <v>84</v>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>010236</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>广发电子信息传媒产业精选股票C</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>0.28</t>
-        </is>
-      </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>89.03</t>
-        </is>
-      </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>3.02</t>
-        </is>
-      </c>
-      <c r="G86" t="inlineStr">
-        <is>
-          <t>0.0085</t>
-        </is>
-      </c>
-      <c r="H86" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="2" t="n">
-        <v>85</v>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>005569</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>中融智选红利股票A</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>0.28</t>
-        </is>
-      </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>93.18</t>
-        </is>
-      </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>2.41</t>
-        </is>
-      </c>
-      <c r="G87" t="inlineStr">
-        <is>
-          <t>0.0067</t>
-        </is>
-      </c>
-      <c r="H87" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="2" t="n">
-        <v>86</v>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>002588</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>博时中证银联智惠大数据100指数A</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>0.29</t>
-        </is>
-      </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>94.45</t>
-        </is>
-      </c>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>1.16</t>
-        </is>
-      </c>
-      <c r="G88" t="inlineStr">
-        <is>
-          <t>0.0034</t>
-        </is>
-      </c>
-      <c r="H88" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" s="2" t="n">
-        <v>87</v>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>005118</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>金信价值精选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>0.06</t>
-        </is>
-      </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>92.56</t>
-        </is>
-      </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>4.48</t>
-        </is>
-      </c>
-      <c r="G89" t="inlineStr">
-        <is>
-          <t>0.0027</t>
-        </is>
-      </c>
-      <c r="H89" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" s="2" t="n">
-        <v>88</v>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>004344</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>南方大数据100指数C</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>0.19</t>
-        </is>
-      </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>93.77</t>
-        </is>
-      </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>1.09</t>
-        </is>
-      </c>
-      <c r="G90" t="inlineStr">
-        <is>
-          <t>0.0021</t>
-        </is>
-      </c>
-      <c r="H90" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" s="2" t="n">
-        <v>89</v>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>004913</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>中银证券聚瑞混合A</t>
-        </is>
-      </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>0.08</t>
-        </is>
-      </c>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>25.83</t>
-        </is>
-      </c>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>1.72</t>
-        </is>
-      </c>
-      <c r="G91" t="inlineStr">
-        <is>
-          <t>0.0014</t>
-        </is>
-      </c>
-      <c r="H91" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="2" t="n">
-        <v>90</v>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>005382</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>泰康睿利量化多策略混合C</t>
-        </is>
-      </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
-      </c>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>94.25</t>
-        </is>
-      </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>2.18</t>
-        </is>
-      </c>
-      <c r="G92" t="inlineStr">
-        <is>
-          <t>0.0011</t>
-        </is>
-      </c>
-      <c r="H92" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="2" t="n">
-        <v>91</v>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>005570</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>中融智选红利股票C</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>93.18</t>
-        </is>
-      </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>2.41</t>
-        </is>
-      </c>
-      <c r="G93" t="inlineStr">
-        <is>
-          <t>0.0007</t>
-        </is>
-      </c>
-      <c r="H93" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" s="2" t="n">
-        <v>92</v>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>004416</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>博时中证银联智惠大数据100指数C</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>94.45</t>
-        </is>
-      </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>1.16</t>
-        </is>
-      </c>
-      <c r="G94" t="inlineStr">
-        <is>
-          <t>0.0001</t>
-        </is>
-      </c>
-      <c r="H94" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" s="2" t="n">
-        <v>93</v>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>006888</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>诺德新生活混合C</t>
-        </is>
-      </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>93.99</t>
-        </is>
-      </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>4.03</t>
-        </is>
-      </c>
-      <c r="G95" t="n">
-        <v>0</v>
-      </c>
-      <c r="H95" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" s="2" t="n">
-        <v>94</v>
-      </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>004914</t>
-        </is>
-      </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>中银证券聚瑞混合C</t>
-        </is>
-      </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>25.83</t>
-        </is>
-      </c>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>1.72</t>
-        </is>
-      </c>
-      <c r="G96" t="n">
-        <v>0</v>
-      </c>
-      <c r="H96" t="n">
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>